--- a/TestData/JTPS-DEVQA/WorkItemStatusTypes.xlsx
+++ b/TestData/JTPS-DEVQA/WorkItemStatusTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="111">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -112,12 +112,6 @@
     <t>wait</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>5.1</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>5.5</t>
   </si>
   <si>
-    <t>wnd_AsynchronousTaskTypes</t>
-  </si>
-  <si>
     <t>elm_close</t>
   </si>
   <si>
@@ -196,9 +187,6 @@
     <t>verifydata</t>
   </si>
   <si>
-    <t>English,French,Spanish,Russian</t>
-  </si>
-  <si>
     <t>elm_value</t>
   </si>
   <si>
@@ -220,18 +208,9 @@
     <t>click</t>
   </si>
   <si>
-    <t>VerifyCell</t>
-  </si>
-  <si>
     <t>elm_Table</t>
   </si>
   <si>
-    <t>value^8,description^30,shortdescription^15</t>
-  </si>
-  <si>
-    <t>5.3.0.1</t>
-  </si>
-  <si>
     <t>Scrolbar Not validate</t>
   </si>
   <si>
@@ -292,12 +271,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>wnd_Confirmationdialog</t>
-  </si>
-  <si>
-    <t>btn_No</t>
-  </si>
-  <si>
     <t>elm_ErrorDescriptionrequired</t>
   </si>
   <si>
@@ -307,9 +280,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>btn_Cancel</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -322,9 +292,6 @@
     <t>DeleteRow</t>
   </si>
   <si>
-    <t>allrows,value^Automati</t>
-  </si>
-  <si>
     <t>elm_deleteConfirmation</t>
   </si>
   <si>
@@ -346,21 +313,6 @@
     <t>AUT</t>
   </si>
   <si>
-    <t>txt_shortdescription</t>
-  </si>
-  <si>
-    <t>5.1.1</t>
-  </si>
-  <si>
-    <t>ClickEvent</t>
-  </si>
-  <si>
-    <t>elm_Maximize</t>
-  </si>
-  <si>
-    <t>elm_Confirmationdialog</t>
-  </si>
-  <si>
     <t>Field_Name1</t>
   </si>
   <si>
@@ -383,6 +335,18 @@
   </si>
   <si>
     <t>pJTPS</t>
+  </si>
+  <si>
+    <t>allrows,value^Aut</t>
+  </si>
+  <si>
+    <t>wnd_BulkPaymentTypes</t>
+  </si>
+  <si>
+    <t>English,French,Spanish</t>
+  </si>
+  <si>
+    <t>Aut</t>
   </si>
 </sst>
 </file>
@@ -566,7 +530,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -640,26 +604,17 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -963,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X173"/>
+  <dimension ref="A1:X160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,22 +994,22 @@
         <v>13</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>9</v>
@@ -1072,7 +1027,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
@@ -1081,9 +1036,7 @@
       <c r="F2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
@@ -1122,7 +1075,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
@@ -1131,9 +1084,7 @@
       <c r="F3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
         <v>21</v>
       </c>
@@ -1142,15 +1093,16 @@
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="22" t="s">
+        <v>63</v>
+      </c>
       <c r="M3" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>29</v>
       </c>
       <c r="Q3" s="11"/>
@@ -1168,14 +1120,12 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
         <v>21</v>
       </c>
@@ -1188,10 +1138,10 @@
         <v>3</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O4" s="11"/>
       <c r="P4" s="15"/>
@@ -1210,14 +1160,12 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="G5" s="6"/>
       <c r="H5" s="7" t="s">
         <v>21</v>
       </c>
@@ -1226,16 +1174,17 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="10"/>
+      <c r="L5" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="M5" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="15" t="s">
-        <v>29</v>
+        <v>106</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -1255,30 +1204,30 @@
         <v>19</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="1">
-        <v>3</v>
-      </c>
+      <c r="L6" s="1"/>
       <c r="M6" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="15"/>
+        <v>106</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
@@ -1288,7 +1237,7 @@
       <c r="W6" s="9"/>
       <c r="X6" s="11"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="4"/>
@@ -1297,31 +1246,31 @@
         <v>19</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="14" t="s">
-        <v>67</v>
+        <v>94</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>35</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
@@ -1341,31 +1290,28 @@
         <v>19</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="39"/>
+        <v>28</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="M8" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -1385,31 +1331,29 @@
         <v>19</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G9" s="6"/>
       <c r="H9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="1"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
       <c r="M9" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>38</v>
+        <v>106</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
@@ -1420,49 +1364,37 @@
       <c r="W9" s="9"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>106</v>
-      </c>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G10" s="6"/>
       <c r="H10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="1" t="s">
-        <v>108</v>
+        <v>31</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="1">
+        <v>1</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>40</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="O10" s="19"/>
+      <c r="P10" s="16"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
@@ -1478,34 +1410,34 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G11" s="6"/>
       <c r="H11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14" t="s">
-        <v>67</v>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="18" t="s">
-        <v>42</v>
+        <v>106</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
@@ -1520,36 +1452,36 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G12" s="6"/>
       <c r="H12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="M12" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P12" s="18" t="s">
-        <v>45</v>
+        <v>96</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
@@ -1569,30 +1501,32 @@
         <v>19</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G13" s="6"/>
       <c r="H13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="1">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O13" s="19"/>
-      <c r="P13" s="16"/>
+        <v>106</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
       <c r="S13" s="19"/>
@@ -1603,41 +1537,39 @@
       <c r="X13" s="21"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="22" t="s">
-        <v>48</v>
+      <c r="L14" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>40</v>
+        <v>106</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
@@ -1649,41 +1581,38 @@
       <c r="X14" s="21"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="23"/>
-      <c r="E15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="8" t="s">
+      <c r="E15" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="30" t="s">
         <v>50</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>47</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="24" t="s">
-        <v>52</v>
+      <c r="L15" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P15" s="15" t="s">
-        <v>51</v>
+        <v>106</v>
+      </c>
+      <c r="O15" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
@@ -1698,38 +1627,36 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G16" s="6"/>
       <c r="H16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="26" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -1742,40 +1669,38 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="23"/>
       <c r="E17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G17" s="6"/>
       <c r="H17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P17" s="15" t="s">
-        <v>55</v>
+        <v>96</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
@@ -1787,100 +1712,97 @@
       <c r="X17" s="27"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="23"/>
-      <c r="E18" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>50</v>
+      <c r="E18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O18" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="P18" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
+        <v>106</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
       <c r="X18" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="E19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G19" s="6"/>
       <c r="H19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="26" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P19" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
+        <v>96</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
       <c r="X19" s="27"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
       <c r="D20" s="23"/>
@@ -1888,45 +1810,43 @@
         <v>19</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G20" s="6"/>
       <c r="H20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="26" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
+        <v>96</v>
+      </c>
+      <c r="P20" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
       <c r="X20" s="11"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+      <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
       <c r="D21" s="23"/>
@@ -1934,103 +1854,93 @@
         <v>19</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G21" s="6"/>
       <c r="H21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="26" t="s">
-        <v>52</v>
+        <v>31</v>
+      </c>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="1">
+        <v>1</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P21" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
+        <v>106</v>
+      </c>
+      <c r="O21" s="19"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
       <c r="X21" s="11"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="23"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="23"/>
       <c r="E22" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G22" s="6"/>
       <c r="H22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="26" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P22" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
+        <v>96</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
       <c r="X22" s="11"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="23"/>
       <c r="E23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G23" s="6"/>
       <c r="H23" s="7" t="s">
         <v>21</v>
       </c>
@@ -2040,85 +1950,89 @@
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P23" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
+        <v>96</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
       <c r="X23" s="27"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="23"/>
       <c r="E24" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G24" s="6"/>
       <c r="H24" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="1">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O24" s="19"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="27"/>
+        <v>106</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="11"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="D25" s="23"/>
       <c r="E25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G25" s="6"/>
       <c r="H25" s="7" t="s">
         <v>21</v>
       </c>
@@ -2128,73 +2042,73 @@
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="26" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P25" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="27"/>
+        <v>96</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="27" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="23"/>
-      <c r="E26" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="32" t="s">
+      <c r="E26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>28</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O26" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="P26" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
+        <v>106</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
       <c r="X26" s="27"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -2202,86 +2116,88 @@
       <c r="B27" s="28"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>68</v>
+      <c r="E27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="10" t="s">
-        <v>70</v>
+      <c r="L27" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O27" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="P27" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="11"/>
+        <v>106</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="27"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
       <c r="D28" s="23"/>
-      <c r="E28" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="32"/>
+      <c r="E28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
-      <c r="L28" s="26"/>
+      <c r="L28" s="26" t="s">
+        <v>75</v>
+      </c>
       <c r="M28" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O28" s="34"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="27" t="s">
-        <v>72</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="27"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
@@ -2294,9 +2210,7 @@
       <c r="F29" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="G29" s="6"/>
       <c r="H29" s="7" t="s">
         <v>21</v>
       </c>
@@ -2306,19 +2220,19 @@
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
@@ -2330,15 +2244,9 @@
       <c r="X29" s="27"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="23"/>
       <c r="E30" s="5" t="s">
         <v>19</v>
@@ -2346,42 +2254,41 @@
       <c r="F30" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="G30" s="6"/>
       <c r="H30" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="26" t="s">
-        <v>109</v>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P30" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="27"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -2391,9 +2298,7 @@
       <c r="F31" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="G31" s="6"/>
       <c r="H31" s="7" t="s">
         <v>21</v>
       </c>
@@ -2402,90 +2307,92 @@
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
-      <c r="L31" s="26" t="s">
-        <v>76</v>
+      <c r="L31" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O31" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P31" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P31" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
       <c r="X31" s="27"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="23"/>
+    <row r="32" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="D32" s="23"/>
       <c r="E32" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G32" s="6"/>
       <c r="H32" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
-      <c r="L32" s="26" t="s">
-        <v>76</v>
+      <c r="L32" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="Q32" s="14"/>
       <c r="R32" s="14"/>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
       <c r="X32" s="27"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="23"/>
       <c r="E33" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G33" s="6"/>
       <c r="H33" s="7" t="s">
         <v>21</v>
       </c>
@@ -2495,19 +2402,19 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
@@ -2516,45 +2423,41 @@
       <c r="U33" s="14"/>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
-      <c r="X33" s="27"/>
+      <c r="X33" s="11"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="23"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G34" s="6"/>
       <c r="H34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
-      <c r="L34" s="26" t="s">
-        <v>82</v>
+      <c r="L34" s="1">
+        <v>3</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P34" s="15" t="s">
-        <v>77</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P34" s="15"/>
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
@@ -2562,7 +2465,7 @@
       <c r="U34" s="14"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
-      <c r="X34" s="27"/>
+      <c r="X34" s="11"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
@@ -2573,11 +2476,9 @@
         <v>19</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G35" s="6"/>
       <c r="H35" s="7" t="s">
         <v>21</v>
       </c>
@@ -2587,19 +2488,19 @@
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="26" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O35" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P35" s="15" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="Q35" s="14"/>
       <c r="R35" s="14"/>
@@ -2608,49 +2509,51 @@
       <c r="U35" s="14"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
-      <c r="X35" s="27"/>
+      <c r="X35" s="11"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="23"/>
       <c r="E36" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G36" s="6"/>
       <c r="H36" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="1">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O36" s="19"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
+        <v>106</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P36" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
-      <c r="X36" s="27"/>
+      <c r="X36" s="2"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
@@ -2658,36 +2561,34 @@
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
       <c r="E37" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G37" s="6"/>
       <c r="H37" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="41" t="s">
-        <v>67</v>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="P37" s="40" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="P37" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
@@ -2696,53 +2597,49 @@
       <c r="U37" s="14"/>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
-      <c r="X37" s="27"/>
+      <c r="X37" s="11"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G38" s="6"/>
       <c r="H38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="1" t="s">
-        <v>108</v>
+        <v>31</v>
+      </c>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="1">
+        <v>1</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O38" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P38" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
+        <v>106</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
-      <c r="X38" s="27"/>
+      <c r="X38" s="11"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
@@ -2755,9 +2652,7 @@
       <c r="F39" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="G39" s="6"/>
       <c r="H39" s="7" t="s">
         <v>21</v>
       </c>
@@ -2766,75 +2661,73 @@
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
-      <c r="L39" s="22" t="s">
+      <c r="L39" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O39" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P39" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="M39" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N39" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O39" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P39" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
-      <c r="X39" s="27"/>
+      <c r="X39" s="11"/>
     </row>
     <row r="40" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="4"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="23"/>
       <c r="E40" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G40" s="6"/>
       <c r="H40" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="10" t="s">
+      <c r="L40" s="26" t="s">
         <v>84</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O40" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P40" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="27"/>
+        <v>83</v>
+      </c>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="11"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
@@ -2845,11 +2738,9 @@
         <v>19</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G41" s="6"/>
       <c r="H41" s="7" t="s">
         <v>21</v>
       </c>
@@ -2859,19 +2750,19 @@
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P41" s="15" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
@@ -2891,39 +2782,37 @@
         <v>19</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G42" s="6"/>
       <c r="H42" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="10" t="s">
-        <v>109</v>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O42" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P42" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="O42" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P42" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
       <c r="X42" s="11"/>
@@ -2939,9 +2828,7 @@
       <c r="F43" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G43" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="G43" s="6"/>
       <c r="H43" s="7" t="s">
         <v>21</v>
       </c>
@@ -2950,26 +2837,26 @@
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
-      <c r="L43" s="26" t="s">
-        <v>87</v>
+      <c r="L43" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O43" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P43" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="O43" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P43" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
       <c r="X43" s="11"/>
@@ -2985,9 +2872,7 @@
       <c r="F44" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="G44" s="6"/>
       <c r="H44" s="7" t="s">
         <v>21</v>
       </c>
@@ -2997,19 +2882,19 @@
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
       <c r="L44" s="26" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P44" s="15" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
@@ -3029,11 +2914,9 @@
         <v>19</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G45" s="6"/>
       <c r="H45" s="7" t="s">
         <v>21</v>
       </c>
@@ -3042,20 +2925,20 @@
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
-      <c r="L45" s="26" t="s">
-        <v>67</v>
+      <c r="L45" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O45" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P45" s="15" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
@@ -3066,7 +2949,7 @@
       <c r="W45" s="9"/>
       <c r="X45" s="11"/>
     </row>
-    <row r="46" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="23"/>
@@ -3075,33 +2958,31 @@
         <v>19</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G46" s="6"/>
       <c r="H46" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="26" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P46" s="15" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="Q46" s="14"/>
       <c r="R46" s="14"/>
@@ -3112,7 +2993,7 @@
       <c r="W46" s="9"/>
       <c r="X46" s="11"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="23"/>
@@ -3121,33 +3002,31 @@
         <v>19</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G47" s="6"/>
       <c r="H47" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
-      <c r="L47" s="26" t="s">
-        <v>67</v>
+      <c r="L47" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O47" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P47" s="15" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="Q47" s="14"/>
       <c r="R47" s="14"/>
@@ -3158,7 +3037,7 @@
       <c r="W47" s="9"/>
       <c r="X47" s="11"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
       <c r="C48" s="23"/>
@@ -3167,39 +3046,37 @@
         <v>19</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G48" s="6"/>
       <c r="H48" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="10" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O48" s="11" t="s">
-        <v>92</v>
+        <v>106</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="P48" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
+        <v>86</v>
+      </c>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
       <c r="V48" s="9"/>
       <c r="W48" s="9"/>
       <c r="X48" s="11"/>
@@ -3213,57 +3090,53 @@
         <v>19</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G49" s="6"/>
       <c r="H49" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="1" t="s">
-        <v>108</v>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O49" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P49" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
+        <v>106</v>
+      </c>
+      <c r="O49" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P49" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
       <c r="V49" s="9"/>
       <c r="W49" s="9"/>
       <c r="X49" s="11"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="23"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="23"/>
       <c r="E50" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G50" s="6"/>
       <c r="H50" s="7" t="s">
         <v>21</v>
       </c>
@@ -3272,20 +3145,20 @@
       </c>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
-      <c r="L50" s="22" t="s">
-        <v>48</v>
+      <c r="L50" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P50" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
@@ -3305,11 +3178,9 @@
         <v>19</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G51" s="6"/>
       <c r="H51" s="7" t="s">
         <v>21</v>
       </c>
@@ -3318,26 +3189,26 @@
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
-      <c r="L51" s="26" t="s">
-        <v>67</v>
+      <c r="L51" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O51" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P51" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
-      <c r="T51" s="14"/>
-      <c r="U51" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="O51" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P51" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
       <c r="V51" s="9"/>
       <c r="W51" s="9"/>
       <c r="X51" s="11"/>
@@ -3351,11 +3222,9 @@
         <v>19</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G52" s="6"/>
       <c r="H52" s="7" t="s">
         <v>21</v>
       </c>
@@ -3365,19 +3234,19 @@
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
       <c r="L52" s="10" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P52" s="15" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="Q52" s="14"/>
       <c r="R52" s="14"/>
@@ -3397,11 +3266,9 @@
         <v>19</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G53" s="6"/>
       <c r="H53" s="7" t="s">
         <v>21</v>
       </c>
@@ -3411,19 +3278,19 @@
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
       <c r="L53" s="26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O53" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P53" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="14"/>
@@ -3434,7 +3301,7 @@
       <c r="W53" s="9"/>
       <c r="X53" s="11"/>
     </row>
-    <row r="54" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="28"/>
       <c r="B54" s="28"/>
       <c r="C54" s="23"/>
@@ -3443,44 +3310,40 @@
         <v>19</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G54" s="6"/>
       <c r="H54" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
       <c r="L54" s="10" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O54" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P54" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
+        <v>96</v>
+      </c>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
       <c r="V54" s="9"/>
       <c r="W54" s="9"/>
       <c r="X54" s="11"/>
     </row>
-    <row r="55" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="28"/>
       <c r="B55" s="28"/>
       <c r="C55" s="23"/>
@@ -3489,33 +3352,31 @@
         <v>19</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G55" s="6"/>
       <c r="H55" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
-      <c r="L55" s="10" t="s">
-        <v>52</v>
+      <c r="L55" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P55" s="15" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="Q55" s="14"/>
       <c r="R55" s="14"/>
@@ -3535,39 +3396,35 @@
         <v>19</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G56" s="6"/>
       <c r="H56" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
-      <c r="L56" s="26" t="s">
-        <v>67</v>
+      <c r="L56" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P56" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
-      <c r="T56" s="14"/>
-      <c r="U56" s="14"/>
+        <v>96</v>
+      </c>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
       <c r="V56" s="9"/>
       <c r="W56" s="9"/>
       <c r="X56" s="11"/>
@@ -3581,11 +3438,9 @@
         <v>19</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G57" s="6"/>
       <c r="H57" s="7" t="s">
         <v>21</v>
       </c>
@@ -3594,20 +3449,20 @@
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
-      <c r="L57" s="10" t="s">
-        <v>67</v>
+      <c r="L57" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O57" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="P57" s="15" t="s">
-        <v>93</v>
+        <v>35</v>
+      </c>
+      <c r="P57" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
@@ -3619,19 +3474,17 @@
       <c r="X57" s="11"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="4"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="23"/>
       <c r="D58" s="23"/>
       <c r="E58" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G58" s="6"/>
       <c r="H58" s="7" t="s">
         <v>21</v>
       </c>
@@ -3640,20 +3493,20 @@
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
-      <c r="L58" s="1" t="s">
-        <v>108</v>
+      <c r="L58" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O58" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P58" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q58" s="11"/>
       <c r="R58" s="11"/>
@@ -3673,11 +3526,9 @@
         <v>19</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G59" s="6"/>
       <c r="H59" s="7" t="s">
         <v>21</v>
       </c>
@@ -3686,26 +3537,26 @@
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
-      <c r="L59" s="22" t="s">
-        <v>48</v>
+      <c r="L59" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O59" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P59" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11"/>
+        <v>106</v>
+      </c>
+      <c r="O59" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P59" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="14"/>
+      <c r="U59" s="14"/>
       <c r="V59" s="9"/>
       <c r="W59" s="9"/>
       <c r="X59" s="11"/>
@@ -3719,11 +3570,9 @@
         <v>19</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G60" s="6"/>
       <c r="H60" s="7" t="s">
         <v>21</v>
       </c>
@@ -3732,20 +3581,20 @@
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
-      <c r="L60" s="10" t="s">
+      <c r="L60" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O60" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="M60" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N60" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O60" s="14" t="s">
-        <v>107</v>
-      </c>
       <c r="P60" s="15" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="Q60" s="14"/>
       <c r="R60" s="14"/>
@@ -3754,7 +3603,7 @@
       <c r="U60" s="14"/>
       <c r="V60" s="9"/>
       <c r="W60" s="9"/>
-      <c r="X60" s="11"/>
+      <c r="X60" s="27"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="28"/>
@@ -3765,11 +3614,9 @@
         <v>19</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G61" s="6"/>
       <c r="H61" s="7" t="s">
         <v>21</v>
       </c>
@@ -3778,29 +3625,29 @@
       </c>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
-      <c r="L61" s="26" t="s">
-        <v>67</v>
+      <c r="L61" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O61" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P61" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="14"/>
-      <c r="T61" s="14"/>
-      <c r="U61" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="O61" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P61" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
       <c r="V61" s="9"/>
       <c r="W61" s="9"/>
-      <c r="X61" s="11"/>
+      <c r="X61" s="27"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
@@ -3811,40 +3658,40 @@
         <v>19</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G62" s="6"/>
       <c r="H62" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
-      <c r="L62" s="10" t="s">
-        <v>91</v>
+      <c r="L62" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O62" s="19"/>
-      <c r="P62" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
-      <c r="U62" s="19"/>
+        <v>106</v>
+      </c>
+      <c r="O62" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P62" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
       <c r="V62" s="9"/>
       <c r="W62" s="9"/>
-      <c r="X62" s="11"/>
+      <c r="X62" s="27"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
@@ -3855,86 +3702,90 @@
         <v>19</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G63" s="6"/>
       <c r="H63" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
       <c r="L63" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N63" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O63" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="P63" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11"/>
+        <v>106</v>
+      </c>
+      <c r="O63" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P63" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
-      <c r="X63" s="11"/>
+      <c r="X63" s="27"/>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="23"/>
+      <c r="A64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="D64" s="23"/>
       <c r="E64" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G64" s="6"/>
       <c r="H64" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
       <c r="L64" s="10" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O64" s="11"/>
-      <c r="P64" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
+        <v>106</v>
+      </c>
+      <c r="O64" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P64" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14"/>
+      <c r="U64" s="14"/>
       <c r="V64" s="9"/>
       <c r="W64" s="9"/>
-      <c r="X64" s="11"/>
+      <c r="X64" s="27"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
@@ -3945,11 +3796,9 @@
         <v>19</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G65" s="6"/>
       <c r="H65" s="7" t="s">
         <v>21</v>
       </c>
@@ -3959,19 +3808,19 @@
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
       <c r="L65" s="26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O65" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P65" s="15" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q65" s="14"/>
       <c r="R65" s="14"/>
@@ -3980,7 +3829,7 @@
       <c r="U65" s="14"/>
       <c r="V65" s="9"/>
       <c r="W65" s="9"/>
-      <c r="X65" s="11"/>
+      <c r="X65" s="27"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="28"/>
@@ -3991,42 +3840,39 @@
         <v>19</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G66" s="6"/>
       <c r="H66" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I66" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J66" s="11"/>
       <c r="K66" s="11"/>
-      <c r="L66" s="10" t="s">
-        <v>67</v>
+      <c r="L66" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O66" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O66" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="P66" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
-      <c r="U66" s="11"/>
+      <c r="P66" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="15"/>
+      <c r="U66" s="15"/>
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
-      <c r="X66" s="11"/>
+      <c r="X66" s="27"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="28"/>
@@ -4037,78 +3883,58 @@
         <v>19</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G67" s="6"/>
       <c r="H67" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
-      <c r="L67" s="10" t="s">
-        <v>98</v>
+      <c r="L67" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N67" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O67" s="11"/>
-      <c r="P67" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
-      <c r="U67" s="11"/>
+        <v>106</v>
+      </c>
+      <c r="O67" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="14"/>
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
-      <c r="X67" s="11"/>
+      <c r="X67" s="27"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="28"/>
       <c r="B68" s="28"/>
       <c r="C68" s="23"/>
       <c r="D68" s="23"/>
-      <c r="E68" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="8"/>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
-      <c r="L68" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M68" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N68" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O68" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P68" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="L68" s="26"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="15"/>
       <c r="Q68" s="11"/>
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
@@ -4119,687 +3945,180 @@
       <c r="X68" s="11"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
+      <c r="A69" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="E69" s="5" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
-      <c r="L69" s="22" t="s">
-        <v>48</v>
+      <c r="L69" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="O69" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P69" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="11"/>
+        <v>93</v>
+      </c>
+      <c r="P69" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q69" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="R69" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="S69" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="T69" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="U69" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="V69" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="W69" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="X69" s="36" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="M70" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N70" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O70" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P70" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q70" s="14"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="14"/>
-      <c r="T70" s="14"/>
-      <c r="U70" s="14"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
-      <c r="X70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M71" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N71" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O71" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P71" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q71" s="14"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="14"/>
-      <c r="T71" s="14"/>
-      <c r="U71" s="14"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="27"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M72" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N72" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O72" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="P72" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
-      <c r="U72" s="11"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
-      <c r="X72" s="27"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M73" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N73" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O73" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P73" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11"/>
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="27"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="M74" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N74" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O74" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P74" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="11"/>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11"/>
-      <c r="U74" s="11"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="27"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M75" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N75" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O75" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P75" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q75" s="14"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="14"/>
-      <c r="T75" s="14"/>
-      <c r="U75" s="14"/>
-      <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
-      <c r="X75" s="27"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D76" s="23"/>
-      <c r="E76" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="M76" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N76" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O76" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P76" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q76" s="14"/>
-      <c r="R76" s="14"/>
-      <c r="S76" s="14"/>
-      <c r="T76" s="14"/>
-      <c r="U76" s="14"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
-      <c r="X76" s="27"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M77" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N77" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O77" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P77" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q77" s="14"/>
-      <c r="R77" s="14"/>
-      <c r="S77" s="14"/>
-      <c r="T77" s="14"/>
-      <c r="U77" s="14"/>
-      <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
-      <c r="X77" s="27"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I78" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K78" s="11"/>
-      <c r="L78" s="26" t="s">
-        <v>67</v>
-      </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
-      <c r="O78" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="P78" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
-      <c r="S78" s="15"/>
-      <c r="T78" s="15"/>
-      <c r="U78" s="15"/>
-      <c r="V78" s="9"/>
-      <c r="W78" s="9"/>
-      <c r="X78" s="27"/>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="26" t="s">
-        <v>67</v>
-      </c>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
-      <c r="O79" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P79" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q79" s="14"/>
-      <c r="R79" s="14"/>
-      <c r="S79" s="14"/>
-      <c r="T79" s="14"/>
-      <c r="U79" s="14"/>
-      <c r="V79" s="9"/>
-      <c r="W79" s="9"/>
-      <c r="X79" s="27"/>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-      <c r="L80" s="26" t="s">
-        <v>67</v>
-      </c>
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
-      <c r="O80" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="P80" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q80" s="11"/>
-      <c r="R80" s="11"/>
-      <c r="S80" s="11"/>
-      <c r="T80" s="11"/>
-      <c r="U80" s="11"/>
-      <c r="V80" s="9"/>
-      <c r="W80" s="9"/>
-      <c r="X80" s="11"/>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H81" s="7"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="26"/>
+    </row>
+    <row r="81" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="11"/>
-      <c r="R81" s="11"/>
-      <c r="S81" s="11"/>
-      <c r="T81" s="11"/>
-      <c r="U81" s="11"/>
-      <c r="V81" s="9"/>
-      <c r="W81" s="9"/>
-      <c r="X81" s="11"/>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I82" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
-      <c r="L82" s="38" t="s">
-        <v>104</v>
-      </c>
+    </row>
+    <row r="82" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
-      <c r="O82" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="P82" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q82" s="11"/>
-      <c r="R82" s="11"/>
-      <c r="S82" s="11"/>
-      <c r="T82" s="11"/>
-      <c r="U82" s="11"/>
-      <c r="V82" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="W82" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="X82" s="38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M89" s="11"/>
       <c r="N89" s="11"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M90" s="11"/>
       <c r="N90" s="11"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M92" s="11"/>
       <c r="N92" s="11"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M93" s="11"/>
       <c r="N93" s="11"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M94" s="11"/>
       <c r="N94" s="11"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M95" s="11"/>
       <c r="N95" s="11"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M96" s="11"/>
       <c r="N96" s="11"/>
     </row>
@@ -5058,58 +4377,6 @@
     <row r="160" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M160" s="11"/>
       <c r="N160" s="11"/>
-    </row>
-    <row r="161" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M161" s="11"/>
-      <c r="N161" s="11"/>
-    </row>
-    <row r="162" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M162" s="11"/>
-      <c r="N162" s="11"/>
-    </row>
-    <row r="163" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M163" s="11"/>
-      <c r="N163" s="11"/>
-    </row>
-    <row r="164" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M164" s="11"/>
-      <c r="N164" s="11"/>
-    </row>
-    <row r="165" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M165" s="11"/>
-      <c r="N165" s="11"/>
-    </row>
-    <row r="166" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M166" s="11"/>
-      <c r="N166" s="11"/>
-    </row>
-    <row r="167" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M167" s="11"/>
-      <c r="N167" s="11"/>
-    </row>
-    <row r="168" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M168" s="11"/>
-      <c r="N168" s="11"/>
-    </row>
-    <row r="169" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M169" s="11"/>
-      <c r="N169" s="11"/>
-    </row>
-    <row r="170" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M170" s="11"/>
-      <c r="N170" s="11"/>
-    </row>
-    <row r="171" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M171" s="11"/>
-      <c r="N171" s="11"/>
-    </row>
-    <row r="172" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M172" s="11"/>
-      <c r="N172" s="11"/>
-    </row>
-    <row r="173" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M173" s="11"/>
-      <c r="N173" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TestData/JTPS-DEVQA/WorkItemStatusTypes.xlsx
+++ b/TestData/JTPS-DEVQA/WorkItemStatusTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="111">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -918,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X160"/>
+  <dimension ref="A1:X159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2019,12 +2019,8 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="23"/>
       <c r="E25" s="5" t="s">
         <v>19</v>
@@ -2332,15 +2328,9 @@
       <c r="X31" s="27"/>
     </row>
     <row r="32" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="A32" s="28"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="23"/>
       <c r="E32" s="5" t="s">
         <v>19</v>
@@ -3738,15 +3728,9 @@
       <c r="X63" s="27"/>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="4"/>
       <c r="D64" s="23"/>
       <c r="E64" s="5" t="s">
         <v>19</v>
@@ -3919,100 +3903,78 @@
       <c r="X67" s="27"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="8"/>
+      <c r="A68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11"/>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
-      <c r="U68" s="11"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="11"/>
+      <c r="L68" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O68" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P68" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q68" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="R68" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="S68" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="T68" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="U68" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="V68" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="W68" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="X68" s="36" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="M69" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="N69" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="O69" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="P69" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q69" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="R69" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="S69" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="T69" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="U69" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="V69" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="W69" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="X69" s="36" t="s">
-        <v>93</v>
-      </c>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M70" s="11"/>
@@ -4373,10 +4335,6 @@
     <row r="159" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M159" s="11"/>
       <c r="N159" s="11"/>
-    </row>
-    <row r="160" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M160" s="11"/>
-      <c r="N160" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TestData/JTPS-DEVQA/WorkItemStatusTypes.xlsx
+++ b/TestData/JTPS-DEVQA/WorkItemStatusTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="116">
   <si>
     <t>EOF</t>
   </si>
@@ -356,6 +356,12 @@
   </si>
   <si>
     <t>allrows,value^ZXY</t>
+  </si>
+  <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>Work Item Status</t>
   </si>
 </sst>
 </file>
@@ -982,8 +988,8 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,8 +1095,12 @@
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
         <v>7</v>
@@ -1135,8 +1145,12 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7" t="s">
         <v>7</v>

--- a/TestData/JTPS-DEVQA/WorkItemStatusTypes.xlsx
+++ b/TestData/JTPS-DEVQA/WorkItemStatusTypes.xlsx
@@ -361,7 +361,7 @@
     <t>TS001</t>
   </si>
   <si>
-    <t>Work Item Status</t>
+    <t>WorkItemStatusTypes</t>
   </si>
 </sst>
 </file>
@@ -989,14 +989,14 @@
   <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>

--- a/TestData/JTPS-DEVQA/WorkItemStatusTypes.xlsx
+++ b/TestData/JTPS-DEVQA/WorkItemStatusTypes.xlsx
@@ -989,7 +989,7 @@
   <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1214,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>3</v>
@@ -1299,7 +1299,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>3</v>
